--- a/prueba22/prueba22.xlsx
+++ b/prueba22/prueba22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3163CF-7A95-4197-ABD0-0B9BB69AA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40EBF6D-2011-4DED-89A4-57D69DE5B8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-180" windowWidth="30936" windowHeight="16776" xr2:uid="{96E3A427-0017-4F70-9894-F559001B3A7F}"/>
   </bookViews>
@@ -1097,9 +1097,6 @@
     <t>VI1 VI2</t>
   </si>
   <si>
-    <t>-KF55 -KF54</t>
-  </si>
-  <si>
     <t>-XD02 -XD01</t>
   </si>
   <si>
@@ -1556,9 +1553,6 @@
     <t>RC1 RC1</t>
   </si>
   <si>
-    <t>-KF01_TA1 -KF01_TA2</t>
-  </si>
-  <si>
     <t>-P6 -P6</t>
   </si>
   <si>
@@ -1773,6 +1767,12 @@
   </si>
   <si>
     <t>-TB03</t>
+  </si>
+  <si>
+    <t>-KF01_TA1  -KF01_TA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-KF55 </t>
   </si>
 </sst>
 </file>
@@ -1796,12 +1796,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -1933,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1972,6 +1984,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2310,23 +2343,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82887E08-31C3-435B-A60F-E2320E3C651F}">
   <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169:F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -7487,11 +7520,11 @@
         <v>315</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="E169" s="6"/>
-      <c r="F169" s="11" t="s">
+      <c r="E169" s="19"/>
+      <c r="F169" s="20" t="s">
         <v>314</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -7879,11 +7912,11 @@
         <v>318</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="15" t="s">
         <v>346</v>
       </c>
       <c r="E185" s="6"/>
-      <c r="F185" s="11" t="s">
+      <c r="F185" s="17" t="s">
         <v>345</v>
       </c>
       <c r="G185" s="5" t="s">
@@ -7968,13 +8001,13 @@
       <c r="C188" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F188" s="11" t="s">
+      <c r="F188" s="16" t="s">
         <v>350</v>
       </c>
       <c r="G188" s="5" t="s">
@@ -8000,7 +8033,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="6"/>
       <c r="F189" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -8015,7 +8048,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="6"/>
       <c r="F190" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -8030,7 +8063,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="6"/>
       <c r="F191" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -8045,7 +8078,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="6"/>
       <c r="F192" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -8062,13 +8095,13 @@
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E193" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="F193" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>1</v>
@@ -8078,7 +8111,7 @@
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K193" s="6"/>
     </row>
@@ -8087,30 +8120,30 @@
         <v>1</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E194" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="F194" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="K194" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -8122,13 +8155,13 @@
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E195" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F195" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>1</v>
@@ -8138,7 +8171,7 @@
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K195" s="6"/>
     </row>
@@ -8147,30 +8180,30 @@
         <v>1</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="F196" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H196" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="K196" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="K196" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -8182,13 +8215,13 @@
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>1</v>
@@ -8198,7 +8231,7 @@
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K197" s="6"/>
     </row>
@@ -8207,30 +8240,30 @@
         <v>1</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="F198" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H198" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="K198" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -8246,7 +8279,7 @@
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>1</v>
@@ -8269,13 +8302,13 @@
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>1</v>
@@ -8290,7 +8323,7 @@
         <v>280</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -8302,13 +8335,13 @@
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>1</v>
@@ -8323,7 +8356,7 @@
         <v>18</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -8340,10 +8373,10 @@
         <v>18</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>1</v>
@@ -8358,7 +8391,7 @@
         <v>12</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8375,10 +8408,10 @@
         <v>18</v>
       </c>
       <c r="E203" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F203" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>1</v>
@@ -8393,7 +8426,7 @@
         <v>12</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -8405,13 +8438,13 @@
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>1</v>
@@ -8424,7 +8457,7 @@
         <v>108</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -8439,10 +8472,10 @@
         <v>108</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>1</v>
@@ -8457,7 +8490,7 @@
         <v>76</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
@@ -8474,10 +8507,10 @@
         <v>77</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>1</v>
@@ -8492,7 +8525,7 @@
         <v>76</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -8509,10 +8542,10 @@
         <v>77</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>1</v>
@@ -8527,7 +8560,7 @@
         <v>77</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8544,10 +8577,10 @@
         <v>67</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>1</v>
@@ -8562,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -8579,10 +8612,10 @@
         <v>67</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>1</v>
@@ -8594,10 +8627,10 @@
         <v>66</v>
       </c>
       <c r="J209" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="K209" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="K209" s="6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -8609,13 +8642,13 @@
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>1</v>
@@ -8628,7 +8661,7 @@
         <v>108</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -8644,7 +8677,7 @@
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>1</v>
@@ -8657,7 +8690,7 @@
         <v>108</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -8673,7 +8706,7 @@
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>1</v>
@@ -8688,7 +8721,7 @@
         <v>84</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -8705,10 +8738,10 @@
         <v>84</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>1</v>
@@ -8723,7 +8756,7 @@
         <v>130</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -8740,10 +8773,10 @@
         <v>130</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>1</v>
@@ -8758,7 +8791,7 @@
         <v>67</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -8775,10 +8808,10 @@
         <v>130</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>1</v>
@@ -8806,10 +8839,10 @@
         <v>77</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>1</v>
@@ -8837,10 +8870,10 @@
         <v>77</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>1</v>
@@ -8855,7 +8888,7 @@
         <v>77</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -8872,10 +8905,10 @@
         <v>77</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>1</v>
@@ -8890,7 +8923,7 @@
         <v>77</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -8898,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>17</v>
@@ -8907,16 +8940,16 @@
         <v>77</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F219" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H219" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H219" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>17</v>
@@ -8925,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
@@ -8940,10 +8973,10 @@
         <v>108</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>1</v>
@@ -8953,10 +8986,10 @@
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
@@ -8973,10 +9006,10 @@
         <v>76</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>1</v>
@@ -8989,7 +9022,7 @@
         <v>108</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -9006,10 +9039,10 @@
         <v>76</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>1</v>
@@ -9024,7 +9057,7 @@
         <v>77</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -9041,10 +9074,10 @@
         <v>77</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>1</v>
@@ -9059,7 +9092,7 @@
         <v>77</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -9076,10 +9109,10 @@
         <v>77</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>1</v>
@@ -9094,7 +9127,7 @@
         <v>67</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
@@ -9108,13 +9141,13 @@
         <v>66</v>
       </c>
       <c r="D225" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E225" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="F225" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>1</v>
@@ -9129,7 +9162,7 @@
         <v>67</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
@@ -9146,10 +9179,10 @@
         <v>67</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>1</v>
@@ -9159,10 +9192,10 @@
       </c>
       <c r="I226" s="5"/>
       <c r="J226" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -9177,10 +9210,10 @@
         <v>108</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>1</v>
@@ -9190,10 +9223,10 @@
       </c>
       <c r="I227" s="5"/>
       <c r="J227" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -9210,10 +9243,10 @@
         <v>76</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>1</v>
@@ -9226,7 +9259,7 @@
         <v>108</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
@@ -9243,10 +9276,10 @@
         <v>76</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>1</v>
@@ -9261,7 +9294,7 @@
         <v>76</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -9278,10 +9311,10 @@
         <v>76</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>1</v>
@@ -9296,7 +9329,7 @@
         <v>77</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -9311,10 +9344,10 @@
         <v>108</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>1</v>
@@ -9324,10 +9357,10 @@
       </c>
       <c r="I231" s="5"/>
       <c r="J231" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
@@ -9344,10 +9377,10 @@
         <v>76</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>1</v>
@@ -9360,7 +9393,7 @@
         <v>108</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -9377,10 +9410,10 @@
         <v>76</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>1</v>
@@ -9395,7 +9428,7 @@
         <v>77</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -9407,13 +9440,13 @@
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>1</v>
@@ -9425,10 +9458,10 @@
         <v>96</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -9442,13 +9475,13 @@
         <v>96</v>
       </c>
       <c r="D235" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F235" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>1</v>
@@ -9460,10 +9493,10 @@
         <v>96</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -9477,13 +9510,13 @@
         <v>96</v>
       </c>
       <c r="D236" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F236" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>1</v>
@@ -9495,10 +9528,10 @@
         <v>96</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -9512,13 +9545,13 @@
         <v>96</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>1</v>
@@ -9530,10 +9563,10 @@
         <v>96</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -9545,13 +9578,13 @@
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>1</v>
@@ -9563,10 +9596,10 @@
         <v>96</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
@@ -9580,13 +9613,13 @@
         <v>96</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>1</v>
@@ -9598,10 +9631,10 @@
         <v>96</v>
       </c>
       <c r="J239" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -9615,13 +9648,13 @@
         <v>96</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>1</v>
@@ -9633,10 +9666,10 @@
         <v>96</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
@@ -9650,13 +9683,13 @@
         <v>96</v>
       </c>
       <c r="D241" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F241" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>1</v>
@@ -9668,10 +9701,10 @@
         <v>96</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -9683,13 +9716,13 @@
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>1</v>
@@ -9701,10 +9734,10 @@
         <v>96</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -9721,10 +9754,10 @@
         <v>12</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>1</v>
@@ -9739,7 +9772,7 @@
         <v>12</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
@@ -9756,10 +9789,10 @@
         <v>12</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>1</v>
@@ -9774,7 +9807,7 @@
         <v>18</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -9786,13 +9819,13 @@
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>1</v>
@@ -9805,7 +9838,7 @@
         <v>23</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -9820,10 +9853,10 @@
         <v>23</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>1</v>
@@ -9836,7 +9869,7 @@
         <v>23</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -9851,10 +9884,10 @@
         <v>23</v>
       </c>
       <c r="E247" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F247" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>1</v>
@@ -9867,7 +9900,7 @@
         <v>23</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -9882,10 +9915,10 @@
         <v>23</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>1</v>
@@ -9898,7 +9931,7 @@
         <v>23</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -9913,10 +9946,10 @@
         <v>23</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>1</v>
@@ -9929,7 +9962,7 @@
         <v>23</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
@@ -9944,10 +9977,10 @@
         <v>23</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>1</v>
@@ -9960,7 +9993,7 @@
         <v>23</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -9975,10 +10008,10 @@
         <v>23</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>1</v>
@@ -9991,7 +10024,7 @@
         <v>23</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
@@ -10008,10 +10041,10 @@
         <v>67</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>1</v>
@@ -10026,7 +10059,7 @@
         <v>130</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -10043,10 +10076,10 @@
         <v>76</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>1</v>
@@ -10061,7 +10094,7 @@
         <v>67</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
@@ -10078,10 +10111,10 @@
         <v>76</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>1</v>
@@ -10109,10 +10142,10 @@
         <v>77</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>1</v>
@@ -10131,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>17</v>
@@ -10140,16 +10173,16 @@
         <v>77</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F256" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H256" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H256" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="I256" s="5" t="s">
         <v>17</v>
@@ -10158,7 +10191,7 @@
         <v>77</v>
       </c>
       <c r="K256" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -10175,10 +10208,10 @@
         <v>67</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>1</v>
@@ -10188,10 +10221,10 @@
       </c>
       <c r="I257" s="5"/>
       <c r="J257" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
@@ -10208,10 +10241,10 @@
         <v>76</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>1</v>
@@ -10226,7 +10259,7 @@
         <v>67</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
@@ -10243,10 +10276,10 @@
         <v>76</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>1</v>
@@ -10274,10 +10307,10 @@
         <v>77</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>1</v>
@@ -10305,10 +10338,10 @@
         <v>77</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>1</v>
@@ -10323,7 +10356,7 @@
         <v>77</v>
       </c>
       <c r="K261" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
@@ -10340,10 +10373,10 @@
         <v>77</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>1</v>
@@ -10358,7 +10391,7 @@
         <v>77</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
@@ -10366,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>17</v>
@@ -10375,16 +10408,16 @@
         <v>77</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F263" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H263" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H263" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="I263" s="5" t="s">
         <v>17</v>
@@ -10393,7 +10426,7 @@
         <v>77</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -10410,10 +10443,10 @@
         <v>67</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G264" s="5" t="s">
         <v>1</v>
@@ -10423,10 +10456,10 @@
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -10443,10 +10476,10 @@
         <v>76</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>1</v>
@@ -10461,7 +10494,7 @@
         <v>67</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -10478,10 +10511,10 @@
         <v>76</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>1</v>
@@ -10509,10 +10542,10 @@
         <v>77</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>1</v>
@@ -10540,10 +10573,10 @@
         <v>77</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>1</v>
@@ -10558,7 +10591,7 @@
         <v>77</v>
       </c>
       <c r="K268" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -10575,10 +10608,10 @@
         <v>77</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>1</v>
@@ -10593,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="K269" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -10601,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>17</v>
@@ -10610,16 +10643,16 @@
         <v>77</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F270" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H270" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H270" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="I270" s="5" t="s">
         <v>17</v>
@@ -10628,7 +10661,7 @@
         <v>77</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -10645,10 +10678,10 @@
         <v>77</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>1</v>
@@ -10663,7 +10696,7 @@
         <v>77</v>
       </c>
       <c r="K271" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -10680,10 +10713,10 @@
         <v>67</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>1</v>
@@ -10696,7 +10729,7 @@
         <v>69</v>
       </c>
       <c r="K272" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -10710,11 +10743,11 @@
         <v>81</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E273" s="6"/>
       <c r="F273" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G273" s="5" t="s">
         <v>1</v>
@@ -10726,7 +10759,7 @@
         <v>347</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K273" s="6"/>
     </row>
@@ -10744,10 +10777,10 @@
         <v>76</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>1</v>
@@ -10782,7 +10815,7 @@
         <v>88</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>1</v>
@@ -10797,7 +10830,7 @@
         <v>77</v>
       </c>
       <c r="K275" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
@@ -10817,7 +10850,7 @@
         <v>88</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G276" s="5" t="s">
         <v>1</v>
@@ -10832,7 +10865,7 @@
         <v>77</v>
       </c>
       <c r="K276" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
@@ -10846,11 +10879,11 @@
         <v>92</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G277" s="5" t="s">
         <v>1</v>
@@ -10862,7 +10895,7 @@
         <v>93</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K277" s="6"/>
     </row>
@@ -10877,11 +10910,11 @@
         <v>93</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>1</v>
@@ -10890,10 +10923,10 @@
         <v>80</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K278" s="6"/>
     </row>
@@ -10908,13 +10941,13 @@
         <v>96</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>1</v>
@@ -10926,7 +10959,7 @@
         <v>81</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K279" s="6"/>
     </row>
@@ -10941,13 +10974,13 @@
         <v>96</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>1</v>
@@ -10959,7 +10992,7 @@
         <v>117</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K280" s="6"/>
     </row>
@@ -10974,11 +11007,11 @@
         <v>117</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>1</v>
@@ -10993,7 +11026,7 @@
         <v>84</v>
       </c>
       <c r="K281" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -11010,10 +11043,10 @@
         <v>67</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>1</v>
@@ -11026,7 +11059,7 @@
         <v>69</v>
       </c>
       <c r="K282" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -11040,11 +11073,11 @@
         <v>81</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>1</v>
@@ -11056,7 +11089,7 @@
         <v>347</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K283" s="6"/>
     </row>
@@ -11074,10 +11107,10 @@
         <v>76</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G284" s="5" t="s">
         <v>1</v>
@@ -11112,7 +11145,7 @@
         <v>88</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>1</v>
@@ -11127,7 +11160,7 @@
         <v>77</v>
       </c>
       <c r="K285" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -11147,7 +11180,7 @@
         <v>88</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>1</v>
@@ -11162,7 +11195,7 @@
         <v>77</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -11176,11 +11209,11 @@
         <v>92</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>1</v>
@@ -11192,7 +11225,7 @@
         <v>93</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K287" s="6"/>
     </row>
@@ -11207,11 +11240,11 @@
         <v>93</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G288" s="5" t="s">
         <v>1</v>
@@ -11220,10 +11253,10 @@
         <v>148</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K288" s="6"/>
     </row>
@@ -11238,13 +11271,13 @@
         <v>96</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>1</v>
@@ -11256,7 +11289,7 @@
         <v>81</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K289" s="6"/>
     </row>
@@ -11265,34 +11298,34 @@
         <v>136</v>
       </c>
       <c r="B290" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C290" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C290" s="5" t="s">
+      <c r="D290" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="E290" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D290" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E290" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>503</v>
+      <c r="F290" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>136</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I290" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="J290" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="K290" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="J290" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="K290" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -11306,13 +11339,13 @@
         <v>96</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G291" s="5" t="s">
         <v>1</v>
@@ -11324,7 +11357,7 @@
         <v>117</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K291" s="6"/>
     </row>
@@ -11339,11 +11372,11 @@
         <v>81</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>1</v>
@@ -11355,7 +11388,7 @@
         <v>347</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K292" s="6"/>
     </row>
@@ -11373,10 +11406,10 @@
         <v>76</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>1</v>
@@ -11411,7 +11444,7 @@
         <v>88</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>1</v>
@@ -11426,7 +11459,7 @@
         <v>77</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -11446,7 +11479,7 @@
         <v>88</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G295" s="5" t="s">
         <v>1</v>
@@ -11461,7 +11494,7 @@
         <v>77</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -11475,11 +11508,11 @@
         <v>92</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>1</v>
@@ -11491,7 +11524,7 @@
         <v>93</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K296" s="6"/>
     </row>
@@ -11506,11 +11539,11 @@
         <v>93</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>1</v>
@@ -11519,10 +11552,10 @@
         <v>172</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K297" s="6"/>
     </row>
@@ -11537,13 +11570,13 @@
         <v>96</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G298" s="5" t="s">
         <v>1</v>
@@ -11555,7 +11588,7 @@
         <v>81</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K298" s="6"/>
     </row>
@@ -11570,13 +11603,13 @@
         <v>96</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G299" s="5" t="s">
         <v>1</v>
@@ -11591,7 +11624,7 @@
         <v>84</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -11605,11 +11638,11 @@
         <v>117</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E300" s="6"/>
       <c r="F300" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G300" s="5" t="s">
         <v>1</v>
@@ -11624,7 +11657,7 @@
         <v>84</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -11641,10 +11674,10 @@
         <v>76</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G301" s="5" t="s">
         <v>1</v>
@@ -11679,7 +11712,7 @@
         <v>88</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G302" s="5" t="s">
         <v>1</v>
@@ -11694,7 +11727,7 @@
         <v>77</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -11714,7 +11747,7 @@
         <v>88</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G303" s="5" t="s">
         <v>1</v>
@@ -11729,7 +11762,7 @@
         <v>77</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -11743,11 +11776,11 @@
         <v>92</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E304" s="6"/>
       <c r="F304" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G304" s="5" t="s">
         <v>1</v>
@@ -11759,7 +11792,7 @@
         <v>93</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K304" s="6"/>
     </row>
@@ -11774,11 +11807,11 @@
         <v>93</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G305" s="5" t="s">
         <v>1</v>
@@ -11787,10 +11820,10 @@
         <v>179</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K305" s="6"/>
     </row>
@@ -11805,11 +11838,11 @@
         <v>117</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E306" s="6"/>
       <c r="F306" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G306" s="5" t="s">
         <v>1</v>
@@ -11824,7 +11857,7 @@
         <v>84</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
@@ -11838,13 +11871,13 @@
         <v>96</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>1</v>
@@ -11856,7 +11889,7 @@
         <v>117</v>
       </c>
       <c r="J307" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K307" s="6"/>
     </row>
@@ -11874,10 +11907,10 @@
         <v>67</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F308" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G308" s="5" t="s">
         <v>1</v>
@@ -11890,7 +11923,7 @@
         <v>69</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -11907,10 +11940,10 @@
         <v>67</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G309" s="5" t="s">
         <v>1</v>
@@ -11923,7 +11956,7 @@
         <v>69</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -11940,10 +11973,10 @@
         <v>76</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G310" s="5" t="s">
         <v>1</v>
@@ -11978,7 +12011,7 @@
         <v>88</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G311" s="5" t="s">
         <v>1</v>
@@ -11993,7 +12026,7 @@
         <v>77</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -12013,7 +12046,7 @@
         <v>88</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G312" s="5" t="s">
         <v>1</v>
@@ -12028,7 +12061,7 @@
         <v>77</v>
       </c>
       <c r="K312" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -12042,11 +12075,11 @@
         <v>92</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E313" s="6"/>
       <c r="F313" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G313" s="5" t="s">
         <v>1</v>
@@ -12058,7 +12091,7 @@
         <v>93</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K313" s="6"/>
     </row>
@@ -12073,11 +12106,11 @@
         <v>93</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E314" s="6"/>
       <c r="F314" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G314" s="5" t="s">
         <v>1</v>
@@ -12086,10 +12119,10 @@
         <v>226</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K314" s="6"/>
     </row>
@@ -12107,10 +12140,10 @@
         <v>77</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>1</v>
@@ -12122,7 +12155,7 @@
         <v>93</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K315" s="6"/>
     </row>
@@ -12137,11 +12170,11 @@
         <v>92</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E316" s="6"/>
       <c r="F316" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>1</v>
@@ -12153,7 +12186,7 @@
         <v>93</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K316" s="6"/>
     </row>
@@ -12166,13 +12199,13 @@
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>1</v>
@@ -12182,10 +12215,10 @@
       </c>
       <c r="I317" s="5"/>
       <c r="J317" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -12197,13 +12230,13 @@
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>1</v>
@@ -12213,10 +12246,10 @@
       </c>
       <c r="I318" s="5"/>
       <c r="J318" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -12228,13 +12261,13 @@
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>1</v>
@@ -12244,10 +12277,10 @@
       </c>
       <c r="I319" s="5"/>
       <c r="J319" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -12259,13 +12292,13 @@
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>1</v>
@@ -12275,10 +12308,10 @@
       </c>
       <c r="I320" s="5"/>
       <c r="J320" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K320" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -12290,13 +12323,13 @@
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>1</v>
@@ -12305,10 +12338,10 @@
         <v>257</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K321" s="6"/>
     </row>
@@ -12321,13 +12354,13 @@
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G322" s="5" t="s">
         <v>1</v>
@@ -12336,10 +12369,10 @@
         <v>257</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K322" s="6"/>
     </row>
@@ -12352,13 +12385,13 @@
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G323" s="5" t="s">
         <v>1</v>
@@ -12367,10 +12400,10 @@
         <v>257</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K323" s="6"/>
     </row>
@@ -12383,13 +12416,13 @@
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>1</v>
@@ -12398,10 +12431,10 @@
         <v>257</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K324" s="6"/>
     </row>
@@ -12414,13 +12447,13 @@
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G325" s="5" t="s">
         <v>1</v>
@@ -12432,7 +12465,7 @@
         <v>81</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K325" s="6"/>
     </row>
@@ -12445,13 +12478,13 @@
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G326" s="5" t="s">
         <v>1</v>
@@ -12463,10 +12496,10 @@
         <v>96</v>
       </c>
       <c r="J326" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
@@ -12478,13 +12511,13 @@
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F327" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>1</v>
@@ -12496,10 +12529,10 @@
         <v>96</v>
       </c>
       <c r="J327" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -12511,13 +12544,13 @@
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F328" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G328" s="5" t="s">
         <v>1</v>
@@ -12529,7 +12562,7 @@
         <v>295</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K328" s="6"/>
     </row>
@@ -12542,13 +12575,13 @@
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>1</v>
@@ -12557,10 +12590,10 @@
         <v>257</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K329" s="6"/>
     </row>
@@ -12573,13 +12606,13 @@
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G330" s="5" t="s">
         <v>1</v>
@@ -12591,7 +12624,7 @@
         <v>257</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K330" s="6"/>
     </row>
@@ -12604,13 +12637,13 @@
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>1</v>
@@ -12622,10 +12655,10 @@
         <v>81</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -12637,13 +12670,13 @@
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G332" s="5" t="s">
         <v>1</v>
@@ -12652,10 +12685,10 @@
         <v>257</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K332" s="6"/>
     </row>
@@ -12668,13 +12701,13 @@
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G333" s="5" t="s">
         <v>1</v>
@@ -12684,10 +12717,10 @@
       </c>
       <c r="I333" s="5"/>
       <c r="J333" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -12699,13 +12732,13 @@
       </c>
       <c r="C334" s="8"/>
       <c r="D334" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E334" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F334" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="F334" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="G334" s="8" t="s">
         <v>1</v>
@@ -12715,10 +12748,10 @@
       </c>
       <c r="I334" s="8"/>
       <c r="J334" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K334" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -12727,15 +12760,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
     <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
@@ -12990,15 +13014,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28EAFA9E-12D6-424C-9C02-26DEFCB64C43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B69382-A964-48DB-8DA5-5F0FF215709A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13015,4 +13040,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28EAFA9E-12D6-424C-9C02-26DEFCB64C43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>